--- a/data/output/FV2504_FV2410/UTILMD/55016.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55016.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2181" uniqueCount="284">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="284">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1009,6 +1009,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U122" totalsRowShown="0">
+  <autoFilter ref="A1:U122"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1298,7 +1328,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6583,5 +6616,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55016.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55016.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2651" uniqueCount="403">
   <si>
     <t>#</t>
   </si>
@@ -5723,44 +5723,42 @@
       </c>
     </row>
     <row r="83" spans="1:22">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5" t="s">
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="M83" s="5" t="s">
+      <c r="K83" s="2"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O83" s="5"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="T83" s="5"/>
-      <c r="U83" s="5" t="s">
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V83" s="5"/>
+      <c r="V83" s="2"/>
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">

--- a/data/output/FV2504_FV2410/UTILMD/55016.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55016.xlsx
@@ -1350,7 +1350,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1373,6 +1373,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1381,6 +1384,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1823,7 +1829,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2187,7 +2193,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2333,7 +2339,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2535,7 +2541,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2843,7 +2849,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3043,7 +3049,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3417,7 +3423,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3725,7 +3731,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3907,24 +3913,24 @@
       <c r="B43" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K43" s="8"/>
-      <c r="L43" s="9" t="s">
+      <c r="K43" s="9"/>
+      <c r="L43" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M43" s="5"/>
@@ -3942,33 +3948,33 @@
       <c r="A44" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="9"/>
+      <c r="I44" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K44" s="8"/>
-      <c r="L44" s="9" t="s">
+      <c r="J44" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K44" s="9"/>
+      <c r="L44" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M44" s="5"/>
@@ -3986,33 +3992,33 @@
       <c r="A45" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="9"/>
+      <c r="I45" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="9" t="s">
+      <c r="J45" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K45" s="9"/>
+      <c r="L45" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M45" s="5"/>
@@ -4030,31 +4036,31 @@
       <c r="A46" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8" t="s">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="9"/>
+      <c r="I46" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K46" s="8"/>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K46" s="9"/>
+      <c r="L46" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M46" s="5"/>
@@ -4069,26 +4075,26 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>233</v>
       </c>
       <c r="K47" s="6" t="s">
@@ -4097,23 +4103,23 @@
       <c r="L47" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M47" s="5" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O47" s="5" t="s">
+      <c r="O47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P47" s="5"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>233</v>
       </c>
       <c r="V47" s="6" t="s">
@@ -4303,26 +4309,26 @@
       <c r="B51" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="K51" s="8" t="s">
+      <c r="K51" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="L51" s="9" t="s">
+      <c r="L51" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M51" s="5"/>
@@ -4340,33 +4346,33 @@
       <c r="A52" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="9"/>
+      <c r="I52" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K52" s="8"/>
-      <c r="L52" s="9" t="s">
+      <c r="J52" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M52" s="5"/>
@@ -4384,31 +4390,31 @@
       <c r="A53" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8" t="s">
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="K53" s="8"/>
-      <c r="L53" s="9" t="s">
+      <c r="K53" s="9"/>
+      <c r="L53" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M53" s="5"/>
@@ -4426,33 +4432,33 @@
       <c r="A54" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="9"/>
+      <c r="I54" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K54" s="8"/>
-      <c r="L54" s="9" t="s">
+      <c r="J54" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K54" s="9"/>
+      <c r="L54" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M54" s="5"/>
@@ -4473,26 +4479,26 @@
       <c r="B55" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
+      <c r="E55" s="9"/>
+      <c r="F55" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K55" s="8" t="s">
+      <c r="K55" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="L55" s="9" t="s">
+      <c r="L55" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M55" s="5"/>
@@ -4510,33 +4516,33 @@
       <c r="A56" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="8" t="s">
+      <c r="G56" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="9"/>
+      <c r="I56" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K56" s="8"/>
-      <c r="L56" s="9" t="s">
+      <c r="J56" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K56" s="9"/>
+      <c r="L56" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M56" s="5"/>
@@ -4554,33 +4560,33 @@
       <c r="A57" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M57" s="5"/>
@@ -4608,29 +4614,29 @@
       <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="10" t="s">
+      <c r="L58" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="N58" s="11" t="s">
+      <c r="N58" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O58" s="11" t="s">
+      <c r="O58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="11" t="s">
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="R58" s="11"/>
-      <c r="S58" s="11"/>
-      <c r="T58" s="11"/>
-      <c r="U58" s="11" t="s">
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="V58" s="11" t="s">
+      <c r="V58" s="13" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4648,35 +4654,35 @@
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="10" t="s">
+      <c r="L59" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="N59" s="11" t="s">
+      <c r="N59" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O59" s="11" t="s">
+      <c r="O59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P59" s="11" t="s">
+      <c r="P59" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="S59" s="11"/>
-      <c r="T59" s="11" t="s">
+      <c r="S59" s="13"/>
+      <c r="T59" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="U59" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V59" s="11"/>
+      <c r="U59" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V59" s="13"/>
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="5" t="s">
@@ -4692,33 +4698,33 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P60" s="11" t="s">
+      <c r="P60" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11" t="s">
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="U60" s="11" t="s">
+      <c r="U60" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="V60" s="11"/>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4734,35 +4740,35 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="Q61" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4778,29 +4784,29 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="11" t="s">
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="R62" s="11"/>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11"/>
-      <c r="U62" s="11" t="s">
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="V62" s="11"/>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4816,35 +4822,35 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="R63" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4860,35 +4866,35 @@
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="10" t="s">
+      <c r="L64" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N64" s="11" t="s">
+      <c r="N64" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O64" s="11" t="s">
+      <c r="O64" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P64" s="11" t="s">
+      <c r="P64" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q64" s="11" t="s">
+      <c r="Q64" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="R64" s="11" t="s">
+      <c r="R64" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="S64" s="11"/>
-      <c r="T64" s="11" t="s">
+      <c r="S64" s="13"/>
+      <c r="T64" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="U64" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V64" s="11"/>
+      <c r="U64" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V64" s="13"/>
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
@@ -4904,35 +4910,35 @@
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="10" t="s">
+      <c r="L65" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P65" s="11" t="s">
+      <c r="P65" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="S65" s="11"/>
-      <c r="T65" s="11" t="s">
+      <c r="S65" s="13"/>
+      <c r="T65" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="U65" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V65" s="11"/>
+      <c r="U65" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V65" s="13"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -4948,33 +4954,33 @@
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="10" t="s">
+      <c r="L66" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N66" s="11" t="s">
+      <c r="N66" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O66" s="11" t="s">
+      <c r="O66" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P66" s="11" t="s">
+      <c r="P66" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q66" s="11"/>
-      <c r="R66" s="11" t="s">
+      <c r="Q66" s="13"/>
+      <c r="R66" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="S66" s="11"/>
-      <c r="T66" s="11" t="s">
+      <c r="S66" s="13"/>
+      <c r="T66" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="U66" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V66" s="11"/>
+      <c r="U66" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V66" s="13"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
@@ -4990,55 +4996,55 @@
       <c r="I67" s="5"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="10" t="s">
+      <c r="L67" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="N67" s="11" t="s">
+      <c r="N67" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="O67" s="11" t="s">
+      <c r="O67" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P67" s="11" t="s">
+      <c r="P67" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="Q67" s="11"/>
-      <c r="R67" s="11" t="s">
+      <c r="Q67" s="13"/>
+      <c r="R67" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="S67" s="11"/>
-      <c r="T67" s="11" t="s">
+      <c r="S67" s="13"/>
+      <c r="T67" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="U67" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V67" s="11"/>
+      <c r="U67" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V67" s="13"/>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E68" s="5"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
         <v>230</v>
       </c>
       <c r="K68" s="6" t="s">
@@ -5047,23 +5053,23 @@
       <c r="L68" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M68" s="5" t="s">
+      <c r="M68" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O68" s="5" t="s">
+      <c r="O68" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P68" s="5"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>230</v>
       </c>
       <c r="V68" s="6" t="s">
@@ -5187,21 +5193,21 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="6" t="s">
         <v>237</v>
       </c>
@@ -5211,18 +5217,18 @@
       <c r="L71" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="6" t="s">
         <v>279</v>
       </c>
@@ -5405,22 +5411,22 @@
       <c r="B75" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8" t="s">
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="K75" s="8" t="s">
+      <c r="K75" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="L75" s="9" t="s">
+      <c r="L75" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M75" s="5"/>
@@ -5438,27 +5444,27 @@
       <c r="A76" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8" t="s">
+      <c r="E76" s="9"/>
+      <c r="F76" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K76" s="8"/>
-      <c r="L76" s="9" t="s">
+      <c r="K76" s="9"/>
+      <c r="L76" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M76" s="5"/>
@@ -5476,33 +5482,33 @@
       <c r="A77" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8" t="s">
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J77" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K77" s="8"/>
-      <c r="L77" s="9" t="s">
+      <c r="J77" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K77" s="9"/>
+      <c r="L77" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M77" s="5"/>
@@ -5520,33 +5526,33 @@
       <c r="A78" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="K78" s="8" t="s">
+      <c r="K78" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="L78" s="9" t="s">
+      <c r="L78" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M78" s="5"/>
@@ -5574,25 +5580,25 @@
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5"/>
-      <c r="L79" s="10" t="s">
+      <c r="L79" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M79" s="11" t="s">
+      <c r="M79" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="N79" s="11" t="s">
+      <c r="N79" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="11"/>
-      <c r="R79" s="11"/>
-      <c r="S79" s="11"/>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11" t="s">
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="V79" s="11" t="s">
+      <c r="V79" s="13" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5610,29 +5616,29 @@
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5"/>
-      <c r="L80" s="10" t="s">
+      <c r="L80" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M80" s="11" t="s">
+      <c r="M80" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N80" s="11" t="s">
+      <c r="N80" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O80" s="11" t="s">
+      <c r="O80" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P80" s="11"/>
-      <c r="Q80" s="11" t="s">
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="R80" s="11"/>
-      <c r="S80" s="11"/>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11" t="s">
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="V80" s="11"/>
+      <c r="V80" s="13"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
@@ -5648,35 +5654,35 @@
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
-      <c r="L81" s="10" t="s">
+      <c r="L81" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P81" s="11" t="s">
+      <c r="P81" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q81" s="11" t="s">
+      <c r="Q81" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="R81" s="11" t="s">
+      <c r="R81" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="S81" s="11"/>
-      <c r="T81" s="11" t="s">
+      <c r="S81" s="13"/>
+      <c r="T81" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="U81" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="V81" s="11"/>
+      <c r="U81" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="V81" s="13"/>
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
@@ -5692,33 +5698,33 @@
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
-      <c r="L82" s="10" t="s">
+      <c r="L82" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M82" s="11" t="s">
+      <c r="M82" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="N82" s="11" t="s">
+      <c r="N82" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O82" s="11" t="s">
+      <c r="O82" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="P82" s="11" t="s">
+      <c r="P82" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q82" s="11" t="s">
+      <c r="Q82" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="R82" s="11"/>
-      <c r="S82" s="11"/>
-      <c r="T82" s="11" t="s">
+      <c r="R82" s="13"/>
+      <c r="S82" s="13"/>
+      <c r="T82" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="U82" s="11" t="s">
+      <c r="U82" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="V82" s="11" t="s">
+      <c r="V82" s="13" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5743,7 +5749,7 @@
       </c>
       <c r="K83" s="2"/>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -5935,22 +5941,22 @@
       <c r="B87" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8" t="s">
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="K87" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="L87" s="9" t="s">
+      <c r="L87" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M87" s="5"/>
@@ -5968,27 +5974,27 @@
       <c r="A88" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8" t="s">
+      <c r="E88" s="9"/>
+      <c r="F88" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K88" s="8"/>
-      <c r="L88" s="9" t="s">
+      <c r="K88" s="9"/>
+      <c r="L88" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M88" s="5"/>
@@ -6006,33 +6012,33 @@
       <c r="A89" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G89" s="8" t="s">
+      <c r="G89" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8" t="s">
+      <c r="H89" s="9"/>
+      <c r="I89" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J89" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K89" s="8"/>
-      <c r="L89" s="9" t="s">
+      <c r="J89" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K89" s="9"/>
+      <c r="L89" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M89" s="5"/>
@@ -6053,20 +6059,20 @@
       <c r="B90" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K90" s="8"/>
-      <c r="L90" s="9" t="s">
+      <c r="K90" s="9"/>
+      <c r="L90" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M90" s="5"/>
@@ -6084,27 +6090,27 @@
       <c r="A91" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
+      <c r="E91" s="9"/>
+      <c r="F91" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K91" s="8"/>
-      <c r="L91" s="9" t="s">
+      <c r="K91" s="9"/>
+      <c r="L91" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M91" s="5"/>
@@ -6122,33 +6128,33 @@
       <c r="A92" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D92" s="8" t="s">
+      <c r="D92" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="9"/>
+      <c r="I92" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="J92" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K92" s="8"/>
-      <c r="L92" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K92" s="9"/>
+      <c r="L92" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M92" s="5"/>
@@ -6166,33 +6172,33 @@
       <c r="A93" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="D93" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8" t="s">
+      <c r="H93" s="9"/>
+      <c r="I93" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="J93" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9" t="s">
+      <c r="J93" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K93" s="9"/>
+      <c r="L93" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M93" s="5"/>
@@ -6213,20 +6219,20 @@
       <c r="B94" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9" t="s">
+      <c r="K94" s="9"/>
+      <c r="L94" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M94" s="5"/>
@@ -6244,27 +6250,27 @@
       <c r="A95" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="D95" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8" t="s">
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9" t="s">
+      <c r="K95" s="9"/>
+      <c r="L95" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M95" s="5"/>
@@ -6282,33 +6288,33 @@
       <c r="A96" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G96" s="8" t="s">
+      <c r="G96" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="9"/>
+      <c r="I96" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="J96" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9" t="s">
+      <c r="J96" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K96" s="9"/>
+      <c r="L96" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M96" s="5"/>
@@ -6329,20 +6335,20 @@
       <c r="B97" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8" t="s">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9" t="s">
+      <c r="K97" s="9"/>
+      <c r="L97" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M97" s="5"/>
@@ -6360,27 +6366,27 @@
       <c r="A98" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
+      <c r="E98" s="9"/>
+      <c r="F98" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K98" s="8"/>
-      <c r="L98" s="9" t="s">
+      <c r="K98" s="9"/>
+      <c r="L98" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M98" s="5"/>
@@ -6398,33 +6404,33 @@
       <c r="A99" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D99" s="8" t="s">
+      <c r="D99" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E99" s="8" t="s">
+      <c r="E99" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="G99" s="8" t="s">
+      <c r="G99" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="9"/>
+      <c r="I99" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K99" s="8"/>
-      <c r="L99" s="9" t="s">
+      <c r="J99" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K99" s="9"/>
+      <c r="L99" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M99" s="5"/>
@@ -6445,24 +6451,24 @@
       <c r="B100" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="D100" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E100" s="8"/>
-      <c r="F100" s="8" t="s">
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
-      <c r="J100" s="8" t="s">
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K100" s="8"/>
-      <c r="L100" s="9" t="s">
+      <c r="K100" s="9"/>
+      <c r="L100" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M100" s="5"/>
@@ -6480,33 +6486,33 @@
       <c r="A101" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D101" s="8" t="s">
+      <c r="D101" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8" t="s">
+      <c r="H101" s="9"/>
+      <c r="I101" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J101" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K101" s="8"/>
-      <c r="L101" s="9" t="s">
+      <c r="J101" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K101" s="9"/>
+      <c r="L101" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M101" s="5"/>
@@ -6524,31 +6530,31 @@
       <c r="A102" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="J102" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K102" s="8"/>
-      <c r="L102" s="9" t="s">
+      <c r="J102" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K102" s="9"/>
+      <c r="L102" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M102" s="5"/>
@@ -6569,22 +6575,22 @@
       <c r="B103" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="I103" s="8"/>
-      <c r="J103" s="8" t="s">
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="L103" s="9" t="s">
+      <c r="L103" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M103" s="5"/>
@@ -6602,27 +6608,27 @@
       <c r="A104" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="D104" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8" t="s">
+      <c r="E104" s="9"/>
+      <c r="F104" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8" t="s">
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K104" s="8"/>
-      <c r="L104" s="9" t="s">
+      <c r="K104" s="9"/>
+      <c r="L104" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M104" s="5"/>
@@ -6640,33 +6646,33 @@
       <c r="A105" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="D105" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="E105" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G105" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8" t="s">
+      <c r="H105" s="9"/>
+      <c r="I105" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="J105" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K105" s="8"/>
-      <c r="L105" s="9" t="s">
+      <c r="J105" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K105" s="9"/>
+      <c r="L105" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M105" s="5"/>
@@ -6684,31 +6690,31 @@
       <c r="A106" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D106" s="8" t="s">
+      <c r="D106" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8" t="s">
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="J106" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K106" s="8"/>
-      <c r="L106" s="9" t="s">
+      <c r="J106" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K106" s="9"/>
+      <c r="L106" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M106" s="5"/>
@@ -6726,33 +6732,33 @@
       <c r="A107" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B107" s="8" t="s">
+      <c r="B107" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="D107" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E107" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G107" s="8" t="s">
+      <c r="G107" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8" t="s">
+      <c r="H107" s="9"/>
+      <c r="I107" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="J107" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K107" s="8"/>
-      <c r="L107" s="9" t="s">
+      <c r="J107" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K107" s="9"/>
+      <c r="L107" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M107" s="5"/>
@@ -6770,31 +6776,31 @@
       <c r="A108" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="D108" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="8" t="s">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8" t="s">
+      <c r="H108" s="9"/>
+      <c r="I108" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="J108" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K108" s="8"/>
-      <c r="L108" s="9" t="s">
+      <c r="J108" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K108" s="9"/>
+      <c r="L108" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M108" s="5"/>
@@ -6815,24 +6821,24 @@
       <c r="B109" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8" t="s">
+      <c r="E109" s="9"/>
+      <c r="F109" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
-      <c r="J109" s="8" t="s">
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="K109" s="8"/>
-      <c r="L109" s="9" t="s">
+      <c r="K109" s="9"/>
+      <c r="L109" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M109" s="5"/>
@@ -6850,33 +6856,33 @@
       <c r="A110" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D110" s="8" t="s">
+      <c r="D110" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="F110" s="8" t="s">
+      <c r="F110" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G110" s="8" t="s">
+      <c r="G110" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8" t="s">
+      <c r="H110" s="9"/>
+      <c r="I110" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="J110" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K110" s="8"/>
-      <c r="L110" s="9" t="s">
+      <c r="J110" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K110" s="9"/>
+      <c r="L110" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M110" s="5"/>
@@ -6894,31 +6900,31 @@
       <c r="A111" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D111" s="8" t="s">
+      <c r="D111" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E111" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F111" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8" t="s">
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="J111" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K111" s="8"/>
-      <c r="L111" s="9" t="s">
+      <c r="J111" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K111" s="9"/>
+      <c r="L111" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M111" s="5"/>
@@ -6939,22 +6945,22 @@
       <c r="B112" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
-      <c r="J112" s="8" t="s">
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="K112" s="8" t="s">
+      <c r="K112" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="L112" s="9" t="s">
+      <c r="L112" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M112" s="5"/>
@@ -6972,27 +6978,27 @@
       <c r="A113" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="B113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="D113" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8" t="s">
+      <c r="E113" s="9"/>
+      <c r="F113" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
-      <c r="J113" s="8" t="s">
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="K113" s="8"/>
-      <c r="L113" s="9" t="s">
+      <c r="K113" s="9"/>
+      <c r="L113" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M113" s="5"/>
@@ -7010,33 +7016,33 @@
       <c r="A114" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="D114" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F114" s="8" t="s">
+      <c r="F114" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G114" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8" t="s">
+      <c r="H114" s="9"/>
+      <c r="I114" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="J114" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K114" s="8"/>
-      <c r="L114" s="9" t="s">
+      <c r="J114" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K114" s="9"/>
+      <c r="L114" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M114" s="5"/>
@@ -7054,31 +7060,31 @@
       <c r="A115" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="D115" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F115" s="8" t="s">
+      <c r="F115" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8" t="s">
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="J115" s="8" t="s">
+      <c r="J115" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K115" s="8"/>
-      <c r="L115" s="9" t="s">
+      <c r="K115" s="9"/>
+      <c r="L115" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M115" s="5"/>
@@ -7096,33 +7102,33 @@
       <c r="A116" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="F116" s="8" t="s">
+      <c r="F116" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8" t="s">
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="J116" s="8" t="s">
+      <c r="J116" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="K116" s="8" t="s">
+      <c r="K116" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="L116" s="9" t="s">
+      <c r="L116" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M116" s="5"/>
@@ -7140,31 +7146,31 @@
       <c r="A117" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B117" s="8" t="s">
+      <c r="B117" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="D117" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E117" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F117" s="8" t="s">
+      <c r="F117" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8" t="s">
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="J117" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K117" s="8"/>
-      <c r="L117" s="9" t="s">
+      <c r="J117" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K117" s="9"/>
+      <c r="L117" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M117" s="5"/>
@@ -7182,31 +7188,31 @@
       <c r="A118" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="D118" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="F118" s="8" t="s">
+      <c r="F118" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="J118" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K118" s="8"/>
-      <c r="L118" s="9" t="s">
+      <c r="J118" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K118" s="9"/>
+      <c r="L118" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M118" s="5"/>
@@ -7224,31 +7230,31 @@
       <c r="A119" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="D119" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="E119" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8" t="s">
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="J119" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="K119" s="8"/>
-      <c r="L119" s="9" t="s">
+      <c r="J119" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="K119" s="9"/>
+      <c r="L119" s="10" t="s">
         <v>258</v>
       </c>
       <c r="M119" s="5"/>
@@ -7263,48 +7269,48 @@
       <c r="V119" s="5"/>
     </row>
     <row r="120" spans="1:22">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5" t="s">
+      <c r="C120" s="2"/>
+      <c r="D120" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="2"/>
       <c r="F120" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5" t="s">
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K120" s="5"/>
+      <c r="K120" s="2"/>
       <c r="L120" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="M120" s="5" t="s">
+      <c r="M120" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N120" s="5"/>
-      <c r="O120" s="5" t="s">
+      <c r="N120" s="2"/>
+      <c r="O120" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P120" s="5"/>
+      <c r="P120" s="2"/>
       <c r="Q120" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
-      <c r="T120" s="5"/>
-      <c r="U120" s="5" t="s">
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="V120" s="5"/>
+      <c r="V120" s="2"/>
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="5" t="s">
